--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Serping1-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Serping1-Sele.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.921572</v>
+        <v>7.649422333333334</v>
       </c>
       <c r="H2">
-        <v>35.764716</v>
+        <v>22.948267</v>
       </c>
       <c r="I2">
-        <v>0.006971694289596158</v>
+        <v>0.004484559810904267</v>
       </c>
       <c r="J2">
-        <v>0.006971694289596159</v>
+        <v>0.004484559810904268</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.879565666666667</v>
+        <v>0.4890553333333333</v>
       </c>
       <c r="N2">
-        <v>23.638697</v>
+        <v>1.467166</v>
       </c>
       <c r="O2">
-        <v>0.9977172793687663</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="P2">
-        <v>0.9977172793687664</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="Q2">
-        <v>93.93680942389467</v>
+        <v>3.740990789035778</v>
       </c>
       <c r="R2">
-        <v>845.431284815052</v>
+        <v>33.668917101322</v>
       </c>
       <c r="S2">
-        <v>0.006955779859206643</v>
+        <v>0.004325123207576119</v>
       </c>
       <c r="T2">
-        <v>0.006955779859206645</v>
+        <v>0.004325123207576119</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.921572</v>
+        <v>7.649422333333334</v>
       </c>
       <c r="H3">
-        <v>35.764716</v>
+        <v>22.948267</v>
       </c>
       <c r="I3">
-        <v>0.006971694289596158</v>
+        <v>0.004484559810904267</v>
       </c>
       <c r="J3">
-        <v>0.006971694289596159</v>
+        <v>0.004484559810904268</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.054084</v>
       </c>
       <c r="O3">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="P3">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="Q3">
-        <v>0.214922100016</v>
+        <v>0.1379037858253333</v>
       </c>
       <c r="R3">
-        <v>1.934298900144</v>
+        <v>1.241134072428</v>
       </c>
       <c r="S3">
-        <v>1.591443038951479E-05</v>
+        <v>0.0001594366033281488</v>
       </c>
       <c r="T3">
-        <v>1.591443038951479E-05</v>
+        <v>0.0001594366033281489</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>4550.859374</v>
       </c>
       <c r="I4">
-        <v>0.8871089682487887</v>
+        <v>0.8893308176045429</v>
       </c>
       <c r="J4">
-        <v>0.8871089682487888</v>
+        <v>0.889330817604543</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.879565666666667</v>
+        <v>0.4890553333333333</v>
       </c>
       <c r="N4">
-        <v>23.638697</v>
+        <v>1.467166</v>
       </c>
       <c r="O4">
-        <v>0.9977172793687663</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="P4">
-        <v>0.9977172793687664</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="Q4">
-        <v>11952.93175906619</v>
+        <v>741.8740160348982</v>
       </c>
       <c r="R4">
-        <v>107576.3858315957</v>
+        <v>6676.866144314084</v>
       </c>
       <c r="S4">
-        <v>0.8850839463048148</v>
+        <v>0.8577130243823085</v>
       </c>
       <c r="T4">
-        <v>0.885083946304815</v>
+        <v>0.8577130243823086</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>4550.859374</v>
       </c>
       <c r="I5">
-        <v>0.8871089682487887</v>
+        <v>0.8893308176045429</v>
       </c>
       <c r="J5">
-        <v>0.8871089682487888</v>
+        <v>0.889330817604543</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,10 +744,10 @@
         <v>0.054084</v>
       </c>
       <c r="O5">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="P5">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="Q5">
         <v>27.34763093149066</v>
@@ -756,10 +756,10 @@
         <v>246.128678383416</v>
       </c>
       <c r="S5">
-        <v>0.002025021943973883</v>
+        <v>0.03161779322223441</v>
       </c>
       <c r="T5">
-        <v>0.002025021943973884</v>
+        <v>0.03161779322223442</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>543.365051</v>
       </c>
       <c r="I6">
-        <v>0.1059193374616151</v>
+        <v>0.1061846225845528</v>
       </c>
       <c r="J6">
-        <v>0.1059193374616151</v>
+        <v>0.1061846225845528</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.879565666666667</v>
+        <v>0.4890553333333333</v>
       </c>
       <c r="N6">
-        <v>23.638697</v>
+        <v>1.467166</v>
       </c>
       <c r="O6">
-        <v>0.9977172793687663</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="P6">
-        <v>0.9977172793687664</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="Q6">
-        <v>1427.160200108727</v>
+        <v>88.57852537949621</v>
       </c>
       <c r="R6">
-        <v>12844.44180097855</v>
+        <v>797.2067284154659</v>
       </c>
       <c r="S6">
-        <v>0.1056775532047449</v>
+        <v>0.1024095105859576</v>
       </c>
       <c r="T6">
-        <v>0.1056775532047449</v>
+        <v>0.1024095105859576</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>543.365051</v>
       </c>
       <c r="I7">
-        <v>0.1059193374616151</v>
+        <v>0.1061846225845528</v>
       </c>
       <c r="J7">
-        <v>0.1059193374616151</v>
+        <v>0.1061846225845528</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,10 +868,10 @@
         <v>0.054084</v>
       </c>
       <c r="O7">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="P7">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="Q7">
         <v>3.265261713142666</v>
@@ -880,10 +880,10 @@
         <v>29.387355418284</v>
       </c>
       <c r="S7">
-        <v>0.0002417842568702252</v>
+        <v>0.003775111998595203</v>
       </c>
       <c r="T7">
-        <v>0.0002417842568702252</v>
+        <v>0.003775111998595204</v>
       </c>
     </row>
   </sheetData>
